--- a/data-raw/metadata/feather_redd_project_metadata.xlsx
+++ b/data-raw/metadata/feather_redd_project_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Downloads/metadata template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleyvizek/code/feather-redd/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F035E0-F781-1641-B04C-AE2836CF1309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7A214F-64C2-8F47-B68D-A5775E219A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="25520" windowHeight="15280" tabRatio="834" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="62940" yWindow="2660" windowWidth="31720" windowHeight="24220" tabRatio="834" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="13" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="77">
   <si>
     <t>first_name</t>
   </si>
@@ -163,12 +163,117 @@
   </si>
   <si>
     <t xml:space="preserve">geometry </t>
+  </si>
+  <si>
+    <t>Redd survey data of Chinook salmon in the Feather River</t>
+  </si>
+  <si>
+    <t>tabular</t>
+  </si>
+  <si>
+    <t>Casey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campos </t>
+  </si>
+  <si>
+    <t>casey.campos@water.ca.gov</t>
+  </si>
+  <si>
+    <t>creator</t>
+  </si>
+  <si>
+    <t>California Department of Water Resources</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Cook</t>
+  </si>
+  <si>
+    <t>chris.cook@water.ca.gov</t>
+  </si>
+  <si>
+    <t>principal investigator</t>
+  </si>
+  <si>
+    <t>Feather redd</t>
+  </si>
+  <si>
+    <t>chinook salmon</t>
+  </si>
+  <si>
+    <t>habitat</t>
+  </si>
+  <si>
+    <t>Oncorhynchus tshawytscha</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Central Valley</t>
+  </si>
+  <si>
+    <t>Feather River</t>
+  </si>
+  <si>
+    <t>Healthy Rivers and Landscapes</t>
+  </si>
+  <si>
+    <t>spawn</t>
+  </si>
+  <si>
+    <t>CCBY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">California Department of Water Resources </t>
+  </si>
+  <si>
+    <t>DWR</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>ongoing</t>
+  </si>
+  <si>
+    <t>annually</t>
+  </si>
+  <si>
+    <t>Feather River Rotary Screw Trap</t>
+  </si>
+  <si>
+    <t>chinook</t>
+  </si>
+  <si>
+    <t>Animalia</t>
+  </si>
+  <si>
+    <t>Craniata</t>
+  </si>
+  <si>
+    <t>Actinopterygii</t>
+  </si>
+  <si>
+    <t>Salmoniformes</t>
+  </si>
+  <si>
+    <t>Salmonidae</t>
+  </si>
+  <si>
+    <t>Oncorhynchus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -186,18 +291,16 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF494A4C"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -233,28 +336,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -342,9 +433,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -382,7 +473,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -488,7 +579,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -630,7 +721,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -638,16 +729,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC88997-D746-4692-9A7F-1A0E218D4835}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="9" style="9"/>
+    <col min="3" max="3" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -657,8 +748,16 @@
       <c r="B1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="4" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -676,53 +775,83 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="21" style="9" customWidth="1"/>
-    <col min="4" max="8" width="10.5" style="9"/>
-    <col min="9" max="9" width="10.33203125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="32.6640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21" style="4" customWidth="1"/>
+    <col min="4" max="8" width="10.5" style="4"/>
+    <col min="9" max="9" width="10.33203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="32.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="4" t="s">
         <v>37</v>
       </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -740,14 +869,14 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="18.83203125" customWidth="1"/>
     <col min="5" max="5" width="27.33203125" customWidth="1"/>
-    <col min="6" max="6" width="27" style="7" customWidth="1"/>
+    <col min="6" max="6" width="27" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -766,17 +895,44 @@
       <c r="E1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C2" s="1"/>
-      <c r="E2" s="2"/>
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -795,7 +951,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -813,7 +969,12 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="115" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -823,27 +984,66 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="46.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -852,42 +1052,50 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="9"/>
-    <col min="4" max="4" width="15.1640625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="26" style="9" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="4"/>
+    <col min="4" max="4" width="15.1640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="26" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="4" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{DE64BBAC-0FC3-419B-841C-76B99065B278}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A3:A1048576" xr:uid="{DE64BBAC-0FC3-419B-841C-76B99065B278}">
       <formula1>"CCO, CCBY"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2" xr:uid="{0D53D7D6-EBB6-C04D-B68A-495D0315B599}">
+      <formula1>"CCO,CCBY"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -897,44 +1105,61 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CC0791-3488-4AA1-946D-D16C61358F1D}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9" style="9"/>
-    <col min="3" max="3" width="9" style="7"/>
-    <col min="4" max="4" width="9" style="9"/>
-    <col min="5" max="5" width="14.5" style="9" customWidth="1"/>
-    <col min="6" max="6" width="9" style="7"/>
+    <col min="1" max="2" width="9" style="4"/>
+    <col min="3" max="3" width="9" style="3"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="14.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{8F71D943-5F40-45B5-8A1F-11A7EFDD12D7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D2" xr:uid="{8F71D943-5F40-45B5-8A1F-11A7EFDD12D7}">
       <formula1>"creator,field technician,program founder,other,associate,reviewer,researcher,principal investigator,lab technician"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -948,41 +1173,51 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="4" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="7"/>
+    <col min="5" max="5" width="10.5" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="8"/>
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -997,23 +1232,31 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.5" style="9" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="4" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1039,7 +1282,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1075,28 +1318,46 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2">
+        <v>-121.63263600000001</v>
+      </c>
+      <c r="C2">
+        <v>-121.60463300000001</v>
+      </c>
+      <c r="D2">
+        <v>39.4621</v>
+      </c>
+      <c r="E2">
+        <v>39.212150000000001</v>
+      </c>
+      <c r="F2" s="6">
+        <v>41891</v>
+      </c>
+      <c r="G2" s="6">
+        <v>45259</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G3" s="6"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G4" s="6"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G5" s="6"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G6" s="6"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G7" s="6"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G8" s="6"/>
+      <c r="G8" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/data-raw/metadata/feather_redd_project_metadata.xlsx
+++ b/data-raw/metadata/feather_redd_project_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleyvizek/code/feather-redd/data-raw/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badhia\Documents\git\feather-redd\data-raw\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7A214F-64C2-8F47-B68D-A5775E219A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AFE04B-371A-4022-9F3D-78D3EA61833B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62940" yWindow="2660" windowWidth="31720" windowHeight="24220" tabRatio="834" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="19200" windowHeight="11170" tabRatio="834" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="13" r:id="rId1"/>
@@ -735,13 +735,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="3" max="3" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -752,7 +752,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -781,7 +781,7 @@
       <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" style="4" customWidth="1"/>
@@ -791,7 +791,7 @@
     <col min="10" max="10" width="32.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -823,7 +823,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -872,14 +872,14 @@
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="18.83203125" customWidth="1"/>
     <col min="5" max="5" width="27.33203125" customWidth="1"/>
     <col min="6" max="6" width="27" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -899,7 +899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -917,7 +917,7 @@
       </c>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -954,13 +954,13 @@
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -968,7 +968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="115" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="115" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -990,13 +990,13 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="46.6640625" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1004,42 +1004,42 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -1058,7 +1058,7 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" style="4" customWidth="1"/>
@@ -1067,7 +1067,7 @@
     <col min="5" max="5" width="26" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>63</v>
       </c>
@@ -1111,7 +1111,7 @@
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="9" style="4"/>
     <col min="3" max="3" width="9" style="3"/>
@@ -1120,7 +1120,7 @@
     <col min="6" max="6" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -1176,7 +1176,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" style="3" customWidth="1"/>
@@ -1185,7 +1185,7 @@
     <col min="5" max="5" width="10.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -1238,12 +1238,12 @@
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="15.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -1285,7 +1285,7 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.1640625" customWidth="1"/>
     <col min="2" max="2" width="23.83203125" customWidth="1"/>
@@ -1295,7 +1295,7 @@
     <col min="8" max="8" width="53.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -1341,22 +1341,22 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G8" s="2"/>
     </row>
   </sheetData>

--- a/data-raw/metadata/feather_redd_project_metadata.xlsx
+++ b/data-raw/metadata/feather_redd_project_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badhia\Documents\git\feather-redd\data-raw\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AFE04B-371A-4022-9F3D-78D3EA61833B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C16C3F2-848D-42C8-AF70-EB143EC7DC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="3420" windowWidth="19200" windowHeight="11170" tabRatio="834" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data-raw/metadata/feather_redd_project_metadata.xlsx
+++ b/data-raw/metadata/feather_redd_project_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badhia\Documents\git\feather-redd\data-raw\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C16C3F2-848D-42C8-AF70-EB143EC7DC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822146B0-4EE5-408C-8FB2-C01650227727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="19200" windowHeight="11170" tabRatio="834" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="19200" windowHeight="11170" tabRatio="834" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="13" r:id="rId1"/>
@@ -1172,7 +1172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1234,7 +1234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
@@ -1292,6 +1292,7 @@
     <col min="3" max="3" width="22.6640625" customWidth="1"/>
     <col min="4" max="4" width="24.1640625" customWidth="1"/>
     <col min="5" max="5" width="23.83203125" customWidth="1"/>
+    <col min="6" max="7" width="16.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="53.6640625" customWidth="1"/>
   </cols>
   <sheetData>

--- a/data-raw/metadata/feather_redd_project_metadata.xlsx
+++ b/data-raw/metadata/feather_redd_project_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badhia\Documents\git\feather-redd\data-raw\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822146B0-4EE5-408C-8FB2-C01650227727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCD69C7-EA5E-4ED9-B358-A0B383F3F300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="19200" windowHeight="11170" tabRatio="834" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="19200" windowHeight="11170" tabRatio="834" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="13" r:id="rId1"/>
@@ -777,7 +777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
@@ -1234,7 +1234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
@@ -1281,7 +1281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
